--- a/2020/July/All Details/01.07.2020/MC Bank Statement July 2020.xlsx
+++ b/2020/July/All Details/01.07.2020/MC Bank Statement July 2020.xlsx
@@ -130,9 +130,6 @@
     <t>B=Shohel Store</t>
   </si>
   <si>
-    <t>Symphony  Balance(+)</t>
-  </si>
-  <si>
     <t>Bank Statement July 2020</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Date: 01.07.2020</t>
+  </si>
+  <si>
+    <t>Symphony  Balance(-)</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1507,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1519,7 +1519,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1542,14 +1542,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1885,7 +1885,7 @@
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="42"/>
       <c r="B3" s="135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="135"/>
       <c r="D3" s="135"/>
@@ -1940,7 +1940,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="42"/>
       <c r="B7" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="46">
         <v>0</v>
@@ -2912,7 +2912,7 @@
   <dimension ref="A1:AL222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="2" spans="1:38" ht="21.75" customHeight="1">
       <c r="A2" s="139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="140"/>
       <c r="C2" s="140"/>
@@ -3041,7 +3041,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="108">
-        <v>190794.86749999999</v>
+        <v>1041270.1475</v>
       </c>
       <c r="F4" s="89"/>
       <c r="G4" s="66"/>
@@ -3082,7 +3082,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="107">
-        <v>295155.30500000011</v>
+        <v>8771.1099999999988</v>
       </c>
       <c r="C5" s="107"/>
       <c r="D5" s="101" t="s">
@@ -3131,14 +3131,14 @@
       </c>
       <c r="B6" s="107">
         <f>B4+B5</f>
-        <v>6795523.3049999997</v>
+        <v>6509139.1100000003</v>
       </c>
       <c r="C6" s="101"/>
       <c r="D6" s="101" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="109">
-        <v>123620</v>
+        <v>321800</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="66"/>
@@ -3184,7 +3184,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="110">
-        <v>2072663</v>
+        <v>2080333</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="66"/>
@@ -3225,7 +3225,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="107">
-        <v>41685</v>
+        <v>150</v>
       </c>
       <c r="C8" s="103"/>
       <c r="D8" s="101" t="s">
@@ -3273,14 +3273,14 @@
         <v>33</v>
       </c>
       <c r="B9" s="111">
-        <v>48700</v>
+        <v>0</v>
       </c>
       <c r="C9" s="103"/>
       <c r="D9" s="103" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" s="108">
-        <v>351624.4375</v>
+        <v>-800850.03749999963</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="66" t="s">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="B10" s="112">
         <f>B5-B8-B9</f>
-        <v>204770.30500000011</v>
+        <v>8621.1099999999988</v>
       </c>
       <c r="C10" s="103"/>
       <c r="D10" s="101"/>
@@ -3371,9 +3371,7 @@
       <c r="A11" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="111">
-        <v>100000</v>
-      </c>
+      <c r="B11" s="111"/>
       <c r="C11" s="103"/>
       <c r="D11" s="103"/>
       <c r="E11" s="110"/>
@@ -3461,7 +3459,7 @@
       </c>
       <c r="B13" s="113">
         <f>B6-B8-B11+B12-B9</f>
-        <v>6605138.3049999997</v>
+        <v>6508989.1100000003</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="105" t="s">
@@ -3469,7 +3467,7 @@
       </c>
       <c r="E13" s="114">
         <f>E4+E5+E6+E7+E8-E11+E9-E10</f>
-        <v>6605138.3049999997</v>
+        <v>6508989.1100000003</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="63">
@@ -3700,7 +3698,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="120">
-        <v>266260</v>
+        <v>270280</v>
       </c>
       <c r="C18" s="101"/>
       <c r="D18" s="128" t="s">
@@ -3801,7 +3799,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="125">
-        <v>222350</v>
+        <v>201550</v>
       </c>
       <c r="G20" s="36"/>
       <c r="H20" s="8"/>
